--- a/JupyterNotebooks/AveragedIntensities-SRP/Alpha3F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensities-SRP/Alpha3F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -31,6 +31,18 @@
     <t>Spiral</t>
   </si>
   <si>
+    <t>OffsetF</t>
+  </si>
+  <si>
+    <t>OffsetA</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt5degRes</t>
   </si>
   <si>
@@ -59,6 +71,9 @@
   </si>
   <si>
     <t>1Pair-A</t>
+  </si>
+  <si>
+    <t>1Pair-B</t>
   </si>
   <si>
     <t>2Pairs-A</t>
@@ -440,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -501,8 +516,11 @@
       <c r="S1" s="1">
         <v>17</v>
       </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -510,58 +528,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -569,58 +590,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9818804034582133</v>
+        <v>0.9891138328530259</v>
       </c>
       <c r="D3">
-        <v>0.9005763688760807</v>
+        <v>0.892507204610951</v>
       </c>
       <c r="E3">
-        <v>1.034221902017291</v>
+        <v>1.033523054755043</v>
       </c>
       <c r="F3">
-        <v>0.9818804034582133</v>
+        <v>0.9891138328530259</v>
       </c>
       <c r="G3">
-        <v>0.9398559077809798</v>
+        <v>0.9373847262247839</v>
       </c>
       <c r="H3">
-        <v>1.082125360230548</v>
+        <v>1.077658501440922</v>
       </c>
       <c r="I3">
-        <v>1.020504322766571</v>
+        <v>1.022074927953891</v>
       </c>
       <c r="J3">
-        <v>0.9005763688760807</v>
+        <v>0.892507204610951</v>
       </c>
       <c r="K3">
-        <v>0.9818804034582133</v>
+        <v>0.9891138328530259</v>
       </c>
       <c r="L3">
-        <v>0.967399135446686</v>
+        <v>1.033523054755043</v>
       </c>
       <c r="M3">
-        <v>0.967399135446686</v>
+        <v>0.9630151296829971</v>
       </c>
       <c r="N3">
-        <v>0.9582180595581172</v>
+        <v>0.9630151296829971</v>
       </c>
       <c r="O3">
-        <v>0.9722262247838618</v>
+        <v>0.9544716618635927</v>
       </c>
       <c r="P3">
-        <v>0.9722262247838618</v>
+        <v>0.9717146974063401</v>
       </c>
       <c r="Q3">
-        <v>0.9746397694524497</v>
+        <v>0.9717146974063399</v>
       </c>
       <c r="R3">
-        <v>0.9746397694524497</v>
+        <v>0.9760644812680114</v>
       </c>
       <c r="S3">
-        <v>0.9931940441882806</v>
+        <v>0.9760644812680114</v>
+      </c>
+      <c r="T3">
+        <v>0.9920437079731027</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -628,58 +652,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9961989288628307</v>
+        <v>1.000886143761771</v>
       </c>
       <c r="D4">
-        <v>0.9831097140660953</v>
+        <v>0.9792953645634351</v>
       </c>
       <c r="E4">
-        <v>0.9972006439894066</v>
+        <v>0.9962026468386158</v>
       </c>
       <c r="F4">
-        <v>0.9961989288628307</v>
+        <v>1.000886143761771</v>
       </c>
       <c r="G4">
-        <v>0.9877872334011286</v>
+        <v>0.9868791438656248</v>
       </c>
       <c r="H4">
-        <v>1.001031300301964</v>
+        <v>0.9975153398610698</v>
       </c>
       <c r="I4">
-        <v>0.9965019935202091</v>
+        <v>0.9971689602690513</v>
       </c>
       <c r="J4">
-        <v>0.9831097140660953</v>
+        <v>0.9792953645634351</v>
       </c>
       <c r="K4">
-        <v>0.9961989288628307</v>
+        <v>1.000886143761771</v>
       </c>
       <c r="L4">
-        <v>0.990155179027751</v>
+        <v>0.9962026468386158</v>
       </c>
       <c r="M4">
-        <v>0.990155179027751</v>
+        <v>0.9877490057010254</v>
       </c>
       <c r="N4">
-        <v>0.9893658638188768</v>
+        <v>0.9877490057010254</v>
       </c>
       <c r="O4">
-        <v>0.9921697623061109</v>
+        <v>0.9874590517558919</v>
       </c>
       <c r="P4">
-        <v>0.9921697623061109</v>
+        <v>0.9921280517212739</v>
       </c>
       <c r="Q4">
-        <v>0.9931770539452909</v>
+        <v>0.9921280517212739</v>
       </c>
       <c r="R4">
-        <v>0.9931770539452909</v>
+        <v>0.9943175747313981</v>
       </c>
       <c r="S4">
-        <v>0.993638302356939</v>
+        <v>0.9943175747313981</v>
+      </c>
+      <c r="T4">
+        <v>0.9929912665265945</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -687,58 +714,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000971376414374</v>
+        <v>1.00204204860933</v>
       </c>
       <c r="D5">
-        <v>0.9705145733906779</v>
+        <v>0.9701392840163292</v>
       </c>
       <c r="E5">
-        <v>0.9983410226858812</v>
+        <v>0.9979414512526268</v>
       </c>
       <c r="F5">
-        <v>1.000971376414374</v>
+        <v>1.00204204860933</v>
       </c>
       <c r="G5">
-        <v>0.9837588644654403</v>
+        <v>0.9836810767655229</v>
       </c>
       <c r="H5">
-        <v>1.001072408455802</v>
+        <v>1.000162191451992</v>
       </c>
       <c r="I5">
-        <v>0.9988292979289616</v>
+        <v>0.9989530427097857</v>
       </c>
       <c r="J5">
-        <v>0.9705145733906779</v>
+        <v>0.9701392840163292</v>
       </c>
       <c r="K5">
-        <v>1.000971376414374</v>
+        <v>1.00204204860933</v>
       </c>
       <c r="L5">
-        <v>0.9844277980382796</v>
+        <v>0.9979414512526268</v>
       </c>
       <c r="M5">
-        <v>0.9844277980382796</v>
+        <v>0.984040367634478</v>
       </c>
       <c r="N5">
-        <v>0.9842048201806666</v>
+        <v>0.984040367634478</v>
       </c>
       <c r="O5">
-        <v>0.9899423241636445</v>
+        <v>0.9839206040114931</v>
       </c>
       <c r="P5">
-        <v>0.9899423241636444</v>
+        <v>0.9900409279594288</v>
       </c>
       <c r="Q5">
-        <v>0.9926995872263267</v>
+        <v>0.9900409279594288</v>
       </c>
       <c r="R5">
-        <v>0.9926995872263267</v>
+        <v>0.9930412081219041</v>
       </c>
       <c r="S5">
-        <v>0.9922479238901892</v>
+        <v>0.9930412081219041</v>
+      </c>
+      <c r="T5">
+        <v>0.9921531824675979</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -746,58 +776,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9927849192538675</v>
+        <v>0.9934883696745263</v>
       </c>
       <c r="D6">
-        <v>0.9929268731668287</v>
+        <v>0.9929398498900728</v>
       </c>
       <c r="E6">
-        <v>0.9960699076223603</v>
+        <v>0.9956563982871044</v>
       </c>
       <c r="F6">
-        <v>0.9927849192538675</v>
+        <v>0.9934883696745263</v>
       </c>
       <c r="G6">
-        <v>0.9917023475057202</v>
+        <v>0.9919043265796794</v>
       </c>
       <c r="H6">
-        <v>0.9981566709637221</v>
+        <v>0.9968881869037475</v>
       </c>
       <c r="I6">
-        <v>0.9947017137581723</v>
+        <v>0.9946752705679516</v>
       </c>
       <c r="J6">
-        <v>0.9929268731668287</v>
+        <v>0.9929398498900728</v>
       </c>
       <c r="K6">
-        <v>0.9927849192538675</v>
+        <v>0.9934883696745263</v>
       </c>
       <c r="L6">
-        <v>0.9944983903945945</v>
+        <v>0.9956563982871044</v>
       </c>
       <c r="M6">
-        <v>0.9944983903945945</v>
+        <v>0.9942981240885886</v>
       </c>
       <c r="N6">
-        <v>0.9935663760983031</v>
+        <v>0.9942981240885886</v>
       </c>
       <c r="O6">
-        <v>0.9939272333476855</v>
+        <v>0.9935001915856189</v>
       </c>
       <c r="P6">
-        <v>0.9939272333476854</v>
+        <v>0.9940282059505678</v>
       </c>
       <c r="Q6">
-        <v>0.9936416548242309</v>
+        <v>0.9940282059505678</v>
       </c>
       <c r="R6">
-        <v>0.9936416548242309</v>
+        <v>0.9938932468815574</v>
       </c>
       <c r="S6">
-        <v>0.9943904053784451</v>
+        <v>0.9938932468815574</v>
+      </c>
+      <c r="T6">
+        <v>0.9942587336505136</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -805,55 +838,306 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9911678954760118</v>
+        <v>1.491935625419781</v>
       </c>
       <c r="D7">
-        <v>0.9958737558574975</v>
+        <v>0.4108525079894817</v>
       </c>
       <c r="E7">
-        <v>0.9957147316274456</v>
+        <v>0.9664745411448636</v>
       </c>
       <c r="F7">
-        <v>0.9911678954760118</v>
+        <v>1.491935625419781</v>
       </c>
       <c r="G7">
-        <v>0.9932382457228821</v>
+        <v>0.743398920937041</v>
       </c>
       <c r="H7">
-        <v>0.9975478825372642</v>
+        <v>0.9030860393840553</v>
       </c>
       <c r="I7">
-        <v>0.9940132030358892</v>
+        <v>1.115750538946536</v>
       </c>
       <c r="J7">
-        <v>0.9958737558574975</v>
+        <v>0.4108525079894817</v>
       </c>
       <c r="K7">
-        <v>0.9911678954760118</v>
+        <v>1.491935625419781</v>
       </c>
       <c r="L7">
-        <v>0.9957942437424716</v>
+        <v>0.9664745411448636</v>
       </c>
       <c r="M7">
-        <v>0.9957942437424716</v>
+        <v>0.6886635245671726</v>
       </c>
       <c r="N7">
-        <v>0.9949422444026084</v>
+        <v>0.6886635245671726</v>
       </c>
       <c r="O7">
-        <v>0.9942521276536517</v>
+        <v>0.706908656690462</v>
       </c>
       <c r="P7">
-        <v>0.9942521276536517</v>
+        <v>0.9564208915180421</v>
       </c>
       <c r="Q7">
-        <v>0.9934810696092418</v>
+        <v>0.9564208915180421</v>
       </c>
       <c r="R7">
-        <v>0.9934810696092418</v>
+        <v>1.090299574993477</v>
       </c>
       <c r="S7">
-        <v>0.9945926190428319</v>
+        <v>1.090299574993477</v>
+      </c>
+      <c r="T7">
+        <v>0.9385830289702931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.8394220767430529</v>
+      </c>
+      <c r="D8">
+        <v>0.8930055967341962</v>
+      </c>
+      <c r="E8">
+        <v>1.099722597447844</v>
+      </c>
+      <c r="F8">
+        <v>0.8394220767430529</v>
+      </c>
+      <c r="G8">
+        <v>0.9428758771989827</v>
+      </c>
+      <c r="H8">
+        <v>1.2099948174553</v>
+      </c>
+      <c r="I8">
+        <v>1.02135588374287</v>
+      </c>
+      <c r="J8">
+        <v>0.8930055967341962</v>
+      </c>
+      <c r="K8">
+        <v>0.8394220767430529</v>
+      </c>
+      <c r="L8">
+        <v>1.099722597447844</v>
+      </c>
+      <c r="M8">
+        <v>0.9963640970910201</v>
+      </c>
+      <c r="N8">
+        <v>0.9963640970910201</v>
+      </c>
+      <c r="O8">
+        <v>0.978534690460341</v>
+      </c>
+      <c r="P8">
+        <v>0.9440500903083645</v>
+      </c>
+      <c r="Q8">
+        <v>0.9440500903083643</v>
+      </c>
+      <c r="R8">
+        <v>0.9178930869170365</v>
+      </c>
+      <c r="S8">
+        <v>0.9178930869170365</v>
+      </c>
+      <c r="T8">
+        <v>1.001062808220374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1.98</v>
+      </c>
+      <c r="D9">
+        <v>0.21</v>
+      </c>
+      <c r="E9">
+        <v>0.83</v>
+      </c>
+      <c r="F9">
+        <v>1.98</v>
+      </c>
+      <c r="G9">
+        <v>0.64</v>
+      </c>
+      <c r="H9">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I9">
+        <v>1.14</v>
+      </c>
+      <c r="J9">
+        <v>0.21</v>
+      </c>
+      <c r="K9">
+        <v>1.98</v>
+      </c>
+      <c r="L9">
+        <v>0.83</v>
+      </c>
+      <c r="M9">
+        <v>0.52</v>
+      </c>
+      <c r="N9">
+        <v>0.52</v>
+      </c>
+      <c r="O9">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="P9">
+        <v>1.006666666666667</v>
+      </c>
+      <c r="Q9">
+        <v>1.006666666666667</v>
+      </c>
+      <c r="R9">
+        <v>1.25</v>
+      </c>
+      <c r="S9">
+        <v>1.25</v>
+      </c>
+      <c r="T9">
+        <v>0.9149999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.65</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10">
+        <v>1.51</v>
+      </c>
+      <c r="F10">
+        <v>0.65</v>
+      </c>
+      <c r="G10">
+        <v>0.22</v>
+      </c>
+      <c r="H10">
+        <v>2.88</v>
+      </c>
+      <c r="I10">
+        <v>1.29</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10">
+        <v>0.65</v>
+      </c>
+      <c r="L10">
+        <v>1.51</v>
+      </c>
+      <c r="M10">
+        <v>0.805</v>
+      </c>
+      <c r="N10">
+        <v>0.805</v>
+      </c>
+      <c r="O10">
+        <v>0.61</v>
+      </c>
+      <c r="P10">
+        <v>0.7533333333333334</v>
+      </c>
+      <c r="Q10">
+        <v>0.7533333333333333</v>
+      </c>
+      <c r="R10">
+        <v>0.7274999999999999</v>
+      </c>
+      <c r="S10">
+        <v>0.7274999999999999</v>
+      </c>
+      <c r="T10">
+        <v>1.108333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.9958023015460041</v>
+      </c>
+      <c r="D11">
+        <v>0.9938366851097498</v>
+      </c>
+      <c r="E11">
+        <v>0.9941718509830335</v>
+      </c>
+      <c r="F11">
+        <v>0.9958023015460041</v>
+      </c>
+      <c r="G11">
+        <v>0.9929791418123147</v>
+      </c>
+      <c r="H11">
+        <v>0.9932844224938732</v>
+      </c>
+      <c r="I11">
+        <v>0.9941678027951393</v>
+      </c>
+      <c r="J11">
+        <v>0.9938366851097498</v>
+      </c>
+      <c r="K11">
+        <v>0.9958023015460041</v>
+      </c>
+      <c r="L11">
+        <v>0.9941718509830335</v>
+      </c>
+      <c r="M11">
+        <v>0.9940042680463916</v>
+      </c>
+      <c r="N11">
+        <v>0.9940042680463916</v>
+      </c>
+      <c r="O11">
+        <v>0.9936625593016993</v>
+      </c>
+      <c r="P11">
+        <v>0.9946036125462624</v>
+      </c>
+      <c r="Q11">
+        <v>0.9946036125462624</v>
+      </c>
+      <c r="R11">
+        <v>0.9949032847961978</v>
+      </c>
+      <c r="S11">
+        <v>0.9949032847961978</v>
+      </c>
+      <c r="T11">
+        <v>0.9940403674566859</v>
       </c>
     </row>
   </sheetData>
